--- a/test_data/s_varying_preferences_to_projects.xlsx
+++ b/test_data/s_varying_preferences_to_projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB7F97E-A81A-B24C-940F-5CBF8927B0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEFB89C-A40C-F547-9FCF-FE399E2D3729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13760" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14500" yWindow="500" windowWidth="13760" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students Preferences" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>1st Choice</t>
-  </si>
-  <si>
-    <t>2nd Choice</t>
-  </si>
-  <si>
-    <t>3rd Choice</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -68,6 +56,18 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>student_names</t>
+  </si>
+  <si>
+    <t>1st_choice</t>
+  </si>
+  <si>
+    <t>2nd_choice</t>
+  </si>
+  <si>
+    <t>3rd_choice</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -448,106 +451,106 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
